--- a/app/Licenciatura_em_Filosofia_Pos_Laboral.xlsx
+++ b/app/Licenciatura_em_Filosofia_Pos_Laboral.xlsx
@@ -98,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="633">
   <si>
     <t>UNIVERSIDADE EDUARDO MONDLANE</t>
   </si>
@@ -247,9 +247,6 @@
     <t>Maria HortÊncia JosÉ Sitoe</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamubukwana</t>
-  </si>
-  <si>
     <t>Masculino</t>
   </si>
   <si>
@@ -286,9 +283,6 @@
     <t>Elisa Fabiao Cossa</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamavota</t>
-  </si>
-  <si>
     <t>Talao de Carta de Conducao</t>
   </si>
   <si>
@@ -313,9 +307,6 @@
     <t>GlÓria Luis Cossa</t>
   </si>
   <si>
-    <t>Distrito Municipal de Kampfumo</t>
-  </si>
-  <si>
     <t>110504227862F</t>
   </si>
   <si>
@@ -337,9 +328,6 @@
     <t>Gloria Antonio Ringue</t>
   </si>
   <si>
-    <t>Distrito de Mavalane</t>
-  </si>
-  <si>
     <t>110502815311P</t>
   </si>
   <si>
@@ -364,9 +352,6 @@
     <t>IncÓgnita</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamaxaquene</t>
-  </si>
-  <si>
     <t>Feminino</t>
   </si>
   <si>
@@ -418,9 +403,6 @@
     <t>Ana Paulino Uamusse</t>
   </si>
   <si>
-    <t>Distrito Municipal Kanyaka</t>
-  </si>
-  <si>
     <t>110301273573A</t>
   </si>
   <si>
@@ -469,9 +451,6 @@
     <t>Elisabete Linda Mulula</t>
   </si>
   <si>
-    <t>Distrito Municipal Katembe</t>
-  </si>
-  <si>
     <t>110101083609N</t>
   </si>
   <si>
@@ -538,9 +517,6 @@
     <t>Alice Novela</t>
   </si>
   <si>
-    <t>Cidade de Tete</t>
-  </si>
-  <si>
     <t>050101589877I</t>
   </si>
   <si>
@@ -853,9 +829,6 @@
     <t>Adelaide Uachane Mazivila</t>
   </si>
   <si>
-    <t>Distrito de Boane</t>
-  </si>
-  <si>
     <t>110101193621Q</t>
   </si>
   <si>
@@ -946,9 +919,6 @@
     <t>Ester Magaia</t>
   </si>
   <si>
-    <t>Distrito de Marracuene</t>
-  </si>
-  <si>
     <t>100100431787S</t>
   </si>
   <si>
@@ -1168,9 +1138,6 @@
     <t xml:space="preserve">Mariana A. N. Mahumane </t>
   </si>
   <si>
-    <t>Distrito Municipal de Nlhamankulu</t>
-  </si>
-  <si>
     <t>051004499927M</t>
   </si>
   <si>
@@ -1369,9 +1336,6 @@
     <t>Anita Gade Manuel</t>
   </si>
   <si>
-    <t>Cidade de Chimoio</t>
-  </si>
-  <si>
     <t>060104937540C</t>
   </si>
   <si>
@@ -1570,9 +1534,6 @@
     <t>Judite Alfredo Monjane</t>
   </si>
   <si>
-    <t>Cidade de Inhambane</t>
-  </si>
-  <si>
     <t>Talao de Bilhete de Identificacao</t>
   </si>
   <si>
@@ -1630,9 +1591,6 @@
     <t>Delfina Augusto</t>
   </si>
   <si>
-    <t>Cidade de Nacala-Porto</t>
-  </si>
-  <si>
     <t>031704437833M</t>
   </si>
   <si>
@@ -1799,9 +1757,6 @@
   </si>
   <si>
     <t>Malina Melembe</t>
-  </si>
-  <si>
-    <t>Distrito de Moamba</t>
   </si>
   <si>
     <t>100704796612P</t>
@@ -3301,7 +3256,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3317,7 +3272,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3333,7 +3288,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3349,7 +3304,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3365,7 +3320,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3380,9 +3335,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>123</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3390,7 +3343,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3401,7 +3354,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3410,7 +3363,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3422,7 +3375,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3430,7 +3383,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3526,7 +3479,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3569,7 +3522,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3896,7 +3849,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3912,7 +3865,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3928,7 +3881,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3944,7 +3897,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3960,7 +3913,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3975,9 +3928,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3985,7 +3936,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3996,7 +3947,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4005,7 +3956,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4017,7 +3968,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4025,7 +3976,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4121,7 +4072,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4164,7 +4115,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4491,7 +4442,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4507,7 +4458,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4523,7 +4474,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4539,7 +4490,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4555,7 +4506,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4570,9 +4521,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4580,7 +4529,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4591,7 +4540,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4600,7 +4549,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4612,7 +4561,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4620,7 +4569,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4716,7 +4665,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4759,7 +4708,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5086,7 +5035,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5102,7 +5051,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5118,7 +5067,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5134,7 +5083,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5150,7 +5099,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5165,9 +5114,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>146</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5175,7 +5122,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5186,7 +5133,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5195,7 +5142,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5207,7 +5154,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5215,7 +5162,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5311,7 +5258,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5354,7 +5301,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5681,7 +5628,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5697,7 +5644,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5713,7 +5660,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5729,7 +5676,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5745,7 +5692,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5760,9 +5707,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>146</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5770,7 +5715,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5781,7 +5726,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5790,7 +5735,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5802,7 +5747,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5906,7 +5851,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5949,7 +5894,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6276,7 +6221,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6292,7 +6237,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6308,7 +6253,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6324,7 +6269,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6340,7 +6285,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6355,9 +6300,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>79</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6365,7 +6308,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6376,7 +6319,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6385,7 +6328,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6397,7 +6340,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6405,7 +6348,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6501,7 +6444,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6544,7 +6487,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6871,7 +6814,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6887,7 +6830,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6903,7 +6846,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6919,7 +6862,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6935,7 +6878,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6950,9 +6893,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6960,7 +6901,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6971,7 +6912,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6980,7 +6921,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6992,7 +6933,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7000,7 +6941,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7096,7 +7037,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7139,7 +7080,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7466,7 +7407,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7482,7 +7423,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7498,7 +7439,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7514,7 +7455,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7530,7 +7471,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7545,9 +7486,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7555,7 +7494,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7566,7 +7505,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7575,7 +7514,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7587,7 +7526,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7595,7 +7534,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7691,7 +7630,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7734,7 +7673,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8061,7 +8000,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -8077,7 +8016,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -8093,7 +8032,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -8109,7 +8048,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -8125,7 +8064,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -8140,9 +8079,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8150,7 +8087,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8161,7 +8098,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8170,7 +8107,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8188,7 +8125,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8284,7 +8221,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8327,7 +8264,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8654,7 +8591,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -8670,7 +8607,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -8686,7 +8623,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -8702,7 +8639,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -8718,7 +8655,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -8733,9 +8670,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>79</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8743,7 +8678,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8754,7 +8689,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8763,7 +8698,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8775,7 +8710,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8783,7 +8718,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8879,7 +8814,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8922,7 +8857,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9328,9 +9263,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9338,7 +9271,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9349,7 +9282,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9358,7 +9291,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9370,7 +9303,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9378,7 +9311,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9474,7 +9407,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9517,7 +9450,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9844,7 +9777,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9860,7 +9793,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9876,7 +9809,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9892,7 +9825,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9908,7 +9841,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9923,9 +9856,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>79</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9933,7 +9864,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9944,7 +9875,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9953,7 +9884,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9965,7 +9896,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10069,7 +10000,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10112,7 +10043,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10439,7 +10370,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10455,7 +10386,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10471,7 +10402,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10487,7 +10418,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10503,7 +10434,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10518,9 +10449,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>79</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10528,7 +10457,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10539,7 +10468,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10548,7 +10477,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10560,7 +10489,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10568,7 +10497,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10664,7 +10593,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10707,7 +10636,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11034,7 +10963,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11050,7 +10979,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11066,7 +10995,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11082,7 +11011,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11098,7 +11027,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11113,9 +11042,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11123,7 +11050,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11134,7 +11061,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11143,7 +11070,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11155,7 +11082,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11163,7 +11090,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11259,7 +11186,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11302,7 +11229,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11629,7 +11556,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11645,7 +11572,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11661,7 +11588,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11677,7 +11604,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11693,7 +11620,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11708,9 +11635,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>79</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11718,7 +11643,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11729,7 +11654,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11738,7 +11663,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11750,7 +11675,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11758,7 +11683,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11854,7 +11779,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11897,7 +11822,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12224,7 +12149,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12240,7 +12165,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12256,7 +12181,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12272,7 +12197,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12288,7 +12213,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12303,9 +12228,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>79</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12313,7 +12236,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12324,7 +12247,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12333,7 +12256,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12345,7 +12268,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12353,7 +12276,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -12449,7 +12372,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12492,7 +12415,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12819,7 +12742,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12835,7 +12758,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12851,7 +12774,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12867,7 +12790,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12883,7 +12806,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12898,9 +12821,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12908,7 +12829,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12919,7 +12840,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12928,7 +12849,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12940,7 +12861,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12948,7 +12869,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13044,7 +12965,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13087,7 +13008,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -13414,7 +13335,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -13430,7 +13351,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -13446,7 +13367,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -13462,7 +13383,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -13478,7 +13399,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -13493,9 +13414,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -13503,7 +13422,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13514,7 +13433,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -13523,7 +13442,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13535,7 +13454,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13543,7 +13462,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13639,7 +13558,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13682,7 +13601,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14009,7 +13928,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14025,7 +13944,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14041,7 +13960,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14057,7 +13976,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14073,7 +13992,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14088,9 +14007,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>251</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14098,7 +14015,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14109,7 +14026,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14118,7 +14035,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14130,7 +14047,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14138,7 +14055,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14234,7 +14151,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14277,7 +14194,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14604,7 +14521,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14620,7 +14537,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14636,7 +14553,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14652,7 +14569,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14668,7 +14585,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14683,9 +14600,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14693,7 +14608,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14704,7 +14619,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14713,7 +14628,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14725,7 +14640,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14733,7 +14648,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14829,7 +14744,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14872,7 +14787,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15199,7 +15114,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15215,7 +15130,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15231,7 +15146,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15247,7 +15162,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15263,7 +15178,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15278,9 +15193,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15288,7 +15201,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15299,7 +15212,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15308,7 +15221,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15320,7 +15233,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15328,7 +15241,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -15424,7 +15337,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15467,7 +15380,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15794,7 +15707,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15810,7 +15723,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15826,7 +15739,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15842,7 +15755,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15858,7 +15771,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15873,9 +15786,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15883,7 +15794,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15894,7 +15805,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15903,7 +15814,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15915,7 +15826,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -16019,7 +15930,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16062,7 +15973,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -16389,7 +16300,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -16405,7 +16316,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -16421,7 +16332,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -16437,7 +16348,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -16453,7 +16364,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -16468,9 +16379,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>79</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -16478,7 +16387,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -16489,7 +16398,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -16498,7 +16407,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -16510,7 +16419,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -16518,7 +16427,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16614,7 +16523,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16657,7 +16566,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -16984,7 +16893,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17000,7 +16909,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17016,7 +16925,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -17032,7 +16941,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17048,7 +16957,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17063,9 +16972,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>282</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17073,7 +16980,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17084,7 +16991,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17093,7 +17000,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17105,7 +17012,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17113,7 +17020,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -17209,7 +17116,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17252,7 +17159,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -17579,7 +17486,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17595,7 +17502,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17611,7 +17518,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -17627,7 +17534,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17643,7 +17550,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17658,9 +17565,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>79</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17668,7 +17573,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17679,7 +17584,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17688,7 +17593,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17700,7 +17605,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17708,7 +17613,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -17804,7 +17709,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17847,7 +17752,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18174,7 +18079,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18190,7 +18095,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18206,7 +18111,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18222,7 +18127,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18238,7 +18143,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18253,9 +18158,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>79</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18263,7 +18166,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18274,7 +18177,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18283,7 +18186,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -18295,7 +18198,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -18303,7 +18206,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -18399,7 +18302,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -18442,7 +18345,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18769,7 +18672,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18785,7 +18688,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18801,7 +18704,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18817,7 +18720,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18833,7 +18736,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18848,9 +18751,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18858,7 +18759,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18869,7 +18770,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18878,7 +18779,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -18890,7 +18791,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -18898,7 +18799,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -18994,7 +18895,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19037,7 +18938,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -19364,7 +19265,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -19380,7 +19281,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -19396,7 +19297,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -19412,7 +19313,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -19428,7 +19329,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -19443,9 +19344,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -19453,7 +19352,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -19464,7 +19363,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -19473,7 +19372,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -19485,7 +19384,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -19493,7 +19392,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -19589,7 +19488,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19632,7 +19531,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -19959,7 +19858,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -19975,7 +19874,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -19991,7 +19890,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -20007,7 +19906,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -20023,7 +19922,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -20038,9 +19937,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>88</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -20048,7 +19945,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -20059,7 +19956,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -20068,7 +19965,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -20080,7 +19977,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -20088,7 +19985,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -20184,7 +20081,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -20227,7 +20124,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -20554,7 +20451,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -20570,7 +20467,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -20586,7 +20483,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -20602,7 +20499,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -20618,7 +20515,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -20633,9 +20530,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>251</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -20643,7 +20538,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -20654,7 +20549,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -20663,7 +20558,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -20675,7 +20570,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -20683,7 +20578,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -20779,7 +20674,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -20822,7 +20717,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -21149,7 +21044,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -21165,7 +21060,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -21181,7 +21076,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -21197,7 +21092,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -21213,7 +21108,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -21228,9 +21123,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -21238,7 +21131,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -21249,7 +21142,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -21258,7 +21151,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -21270,7 +21163,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -21278,7 +21171,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -21374,7 +21267,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -21417,7 +21310,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -21744,7 +21637,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -21760,7 +21653,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -21776,7 +21669,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -21792,7 +21685,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -21808,7 +21701,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -21823,9 +21716,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -21833,7 +21724,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -21844,7 +21735,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -21853,7 +21744,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -21865,7 +21756,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -21873,7 +21764,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -21969,7 +21860,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -22012,7 +21903,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -22339,7 +22230,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -22355,7 +22246,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -22371,7 +22262,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -22387,7 +22278,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -22403,7 +22294,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -22418,9 +22309,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -22428,7 +22317,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -22439,7 +22328,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -22448,7 +22337,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -22460,7 +22349,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -22468,7 +22357,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -22564,7 +22453,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -22607,7 +22496,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -22934,7 +22823,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -22950,7 +22839,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -22966,7 +22855,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -22982,7 +22871,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -22998,7 +22887,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -23013,9 +22902,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>79</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -23023,7 +22910,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -23034,7 +22921,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -23043,7 +22930,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -23055,7 +22942,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -23063,7 +22950,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -23159,7 +23046,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -23202,7 +23089,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -23529,7 +23416,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -23545,7 +23432,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -23561,7 +23448,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -23577,7 +23464,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -23593,7 +23480,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -23608,9 +23495,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>356</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -23618,7 +23503,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -23629,7 +23514,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -23638,7 +23523,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -23650,7 +23535,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -23658,7 +23543,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -23754,7 +23639,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -23797,7 +23682,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -24124,7 +24009,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -24140,7 +24025,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -24156,7 +24041,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -24172,7 +24057,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -24188,7 +24073,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -24203,9 +24088,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>79</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -24213,7 +24096,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -24224,7 +24107,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -24233,7 +24116,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -24245,7 +24128,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -24253,7 +24136,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -24349,7 +24232,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -24392,7 +24275,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -24719,7 +24602,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -24735,7 +24618,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -24751,7 +24634,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -24767,7 +24650,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -24783,7 +24666,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -24798,9 +24681,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>79</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -24808,7 +24689,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -24819,7 +24700,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -24828,7 +24709,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -24840,7 +24721,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -24848,7 +24729,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -24944,7 +24825,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -24987,7 +24868,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -25314,7 +25195,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -25330,7 +25211,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -25346,7 +25227,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -25362,7 +25243,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -25378,7 +25259,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -25393,9 +25274,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>79</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -25403,7 +25282,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -25414,7 +25293,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -25423,7 +25302,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -25435,7 +25314,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -25443,7 +25322,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -25539,7 +25418,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -25582,7 +25461,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -25909,7 +25788,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -25925,7 +25804,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -25941,7 +25820,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -25957,7 +25836,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -25973,7 +25852,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -25988,9 +25867,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -25998,7 +25875,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -26009,7 +25886,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -26018,7 +25895,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -26030,7 +25907,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -26038,7 +25915,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -26134,7 +26011,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -26177,7 +26054,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -26504,7 +26381,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -26520,7 +26397,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -26536,7 +26413,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -26552,7 +26429,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -26568,7 +26445,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -26583,9 +26460,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -26593,7 +26468,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -26604,7 +26479,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -26613,7 +26488,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -26625,7 +26500,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -26633,7 +26508,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -26729,7 +26604,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -26772,7 +26647,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -27099,7 +26974,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -27115,7 +26990,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -27131,7 +27006,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -27147,7 +27022,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -27163,7 +27038,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -27178,9 +27053,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>88</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -27188,7 +27061,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -27199,7 +27072,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -27208,7 +27081,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -27220,7 +27093,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -27228,7 +27101,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -27324,7 +27197,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -27367,7 +27240,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -27694,7 +27567,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -27710,7 +27583,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -27726,7 +27599,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -27742,7 +27615,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -27758,7 +27631,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -27773,9 +27646,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>251</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -27783,7 +27654,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -27794,7 +27665,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -27803,7 +27674,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -27815,7 +27686,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -27823,7 +27694,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -27919,7 +27790,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -27962,7 +27833,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -28289,7 +28160,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -28305,7 +28176,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -28321,7 +28192,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -28337,7 +28208,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -28353,7 +28224,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -28368,9 +28239,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>88</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -28378,7 +28247,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -28389,7 +28258,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -28398,7 +28267,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -28410,7 +28279,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -28418,7 +28287,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -28514,7 +28383,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -28557,7 +28426,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -28884,7 +28753,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -28900,7 +28769,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -28916,7 +28785,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -28932,7 +28801,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -28948,7 +28817,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -28963,9 +28832,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>79</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -28973,7 +28840,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -28984,7 +28851,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -28993,7 +28860,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -29005,7 +28872,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -29013,7 +28880,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -29109,7 +28976,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -29152,7 +29019,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -29479,7 +29346,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -29495,7 +29362,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -29511,7 +29378,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -29527,7 +29394,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -29543,7 +29410,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -29558,9 +29425,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>423</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -29568,7 +29433,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -29579,7 +29444,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -29588,7 +29453,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -29600,7 +29465,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -29608,7 +29473,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -29704,7 +29569,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -29747,7 +29612,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -30074,7 +29939,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -30090,7 +29955,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -30106,7 +29971,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -30122,7 +29987,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -30138,7 +30003,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -30153,9 +30018,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>79</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -30163,7 +30026,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -30174,7 +30037,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -30183,7 +30046,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -30195,7 +30058,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -30203,7 +30066,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -30299,7 +30162,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -30342,7 +30205,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -30669,7 +30532,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -30685,7 +30548,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -30701,7 +30564,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -30717,7 +30580,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -30733,7 +30596,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -30748,9 +30611,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>79</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -30758,7 +30619,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -30769,7 +30630,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -30778,7 +30639,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -30790,7 +30651,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -30798,7 +30659,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -30894,7 +30755,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -30937,7 +30798,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -31264,7 +31125,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -31280,7 +31141,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -31296,7 +31157,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -31312,7 +31173,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -31328,7 +31189,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -31343,9 +31204,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -31353,7 +31212,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -31364,7 +31223,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -31373,7 +31232,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -31385,7 +31244,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -31393,7 +31252,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -31489,7 +31348,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -31532,7 +31391,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -31859,7 +31718,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -31875,7 +31734,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -31891,7 +31750,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -31907,7 +31766,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -31923,7 +31782,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -31938,9 +31797,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>79</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -31948,7 +31805,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -31959,7 +31816,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -31968,7 +31825,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -31980,7 +31837,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -31988,7 +31845,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -32084,7 +31941,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -32127,7 +31984,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -32454,7 +32311,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -32470,7 +32327,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -32486,7 +32343,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -32502,7 +32359,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -32518,7 +32375,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -32533,9 +32390,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>79</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -32543,7 +32398,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -32554,7 +32409,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -32563,7 +32418,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -32575,7 +32430,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -32583,7 +32438,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -32679,7 +32534,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -32722,7 +32577,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -33049,7 +32904,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -33065,7 +32920,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -33081,7 +32936,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -33097,7 +32952,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -33113,7 +32968,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -33128,9 +32983,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>356</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -33138,7 +32991,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -33149,7 +33002,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -33158,7 +33011,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -33170,7 +33023,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -33178,7 +33031,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -33274,7 +33127,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -33317,7 +33170,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -33644,7 +33497,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -33660,7 +33513,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -33676,7 +33529,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -33692,7 +33545,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -33708,7 +33561,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -33723,9 +33576,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -33733,7 +33584,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -33744,7 +33595,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -33753,7 +33604,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -33765,7 +33616,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -33773,7 +33624,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -33869,7 +33720,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -33912,7 +33763,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -34239,7 +34090,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -34255,7 +34106,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -34271,7 +34122,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -34287,7 +34138,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -34303,7 +34154,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -34318,9 +34169,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -34328,7 +34177,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -34339,7 +34188,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -34348,7 +34197,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -34360,7 +34209,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -34368,7 +34217,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -34464,7 +34313,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -34507,7 +34356,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -34834,7 +34683,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -34850,7 +34699,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -34866,7 +34715,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -34882,7 +34731,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -34898,7 +34747,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -34913,9 +34762,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>490</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -34923,7 +34770,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -34934,7 +34781,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -34943,7 +34790,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -34955,7 +34802,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -35059,7 +34906,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -35102,7 +34949,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -35429,7 +35276,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -35445,7 +35292,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -35461,7 +35308,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -35477,7 +35324,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -35493,7 +35340,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -35508,9 +35355,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>88</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -35518,7 +35363,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -35529,7 +35374,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -35538,7 +35383,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -35550,7 +35395,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -35558,7 +35403,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -35654,7 +35499,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -35697,7 +35542,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -36024,7 +35869,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -36040,7 +35885,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -36056,7 +35901,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -36072,7 +35917,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -36088,7 +35933,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -36103,9 +35948,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>356</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -36113,7 +35956,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -36124,7 +35967,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -36133,7 +35976,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -36145,7 +35988,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -36153,7 +35996,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -36249,7 +36092,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -36292,7 +36135,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -36619,7 +36462,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -36635,7 +36478,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>500</v>
+        <v>487</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -36651,7 +36494,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -36667,7 +36510,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -36683,7 +36526,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -36698,9 +36541,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>79</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -36708,7 +36549,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -36719,7 +36560,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -36728,7 +36569,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -36740,7 +36581,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -36844,7 +36685,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -36887,7 +36728,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -37214,7 +37055,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -37230,7 +37071,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -37246,7 +37087,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>507</v>
+        <v>494</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -37262,7 +37103,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>508</v>
+        <v>495</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -37278,7 +37119,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>509</v>
+        <v>496</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -37293,9 +37134,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>510</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -37303,7 +37142,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -37314,7 +37153,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -37323,7 +37162,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -37335,7 +37174,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -37343,7 +37182,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>511</v>
+        <v>497</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -37439,7 +37278,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>512</v>
+        <v>498</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -37482,7 +37321,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -37809,7 +37648,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>513</v>
+        <v>499</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -37825,7 +37664,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>514</v>
+        <v>500</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -37841,7 +37680,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>515</v>
+        <v>501</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -37857,7 +37696,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>516</v>
+        <v>502</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -37873,7 +37712,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>517</v>
+        <v>503</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -37888,9 +37727,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -37898,7 +37735,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -37909,7 +37746,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -37918,7 +37755,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -37930,7 +37767,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -38034,7 +37871,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>518</v>
+        <v>504</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -38077,7 +37914,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>519</v>
+        <v>505</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -38404,7 +38241,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>520</v>
+        <v>506</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -38420,7 +38257,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>521</v>
+        <v>507</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -38436,7 +38273,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>522</v>
+        <v>508</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -38452,7 +38289,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>523</v>
+        <v>509</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -38468,7 +38305,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>524</v>
+        <v>510</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -38483,9 +38320,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>79</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -38493,7 +38328,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -38504,7 +38339,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -38513,7 +38348,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -38525,7 +38360,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -38533,7 +38368,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -38629,7 +38464,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -38672,7 +38507,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -38999,7 +38834,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -39015,7 +38850,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>529</v>
+        <v>515</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -39031,7 +38866,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -39047,7 +38882,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>531</v>
+        <v>517</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -39063,7 +38898,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>532</v>
+        <v>518</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -39078,9 +38913,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -39088,7 +38921,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -39099,7 +38932,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -39108,7 +38941,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -39120,7 +38953,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -39128,7 +38961,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>533</v>
+        <v>519</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -39224,7 +39057,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>534</v>
+        <v>520</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -39267,7 +39100,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -39594,7 +39427,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -39610,7 +39443,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -39626,7 +39459,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -39642,7 +39475,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -39658,7 +39491,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -39673,9 +39506,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -39683,7 +39514,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -39694,7 +39525,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -39703,7 +39534,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -39715,7 +39546,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -39723,7 +39554,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>540</v>
+        <v>526</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -39819,7 +39650,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -39862,7 +39693,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -40189,7 +40020,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -40205,7 +40036,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>542</v>
+        <v>528</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -40221,7 +40052,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>543</v>
+        <v>529</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -40237,7 +40068,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>544</v>
+        <v>530</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -40253,7 +40084,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>545</v>
+        <v>531</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -40268,9 +40099,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>79</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -40278,7 +40107,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -40289,7 +40118,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -40298,7 +40127,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -40310,7 +40139,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -40318,7 +40147,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>546</v>
+        <v>532</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -40414,7 +40243,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -40457,7 +40286,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -40784,7 +40613,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>548</v>
+        <v>534</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -40800,7 +40629,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>549</v>
+        <v>535</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -40816,7 +40645,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>550</v>
+        <v>536</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -40832,7 +40661,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>551</v>
+        <v>537</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -40848,7 +40677,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>552</v>
+        <v>538</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -40863,9 +40692,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>79</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -40873,7 +40700,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -40884,7 +40711,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -40893,7 +40720,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -40905,7 +40732,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -40913,7 +40740,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>553</v>
+        <v>539</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -41009,7 +40836,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>554</v>
+        <v>540</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -41052,7 +40879,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -41379,7 +41206,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>555</v>
+        <v>541</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -41395,7 +41222,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>556</v>
+        <v>542</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -41411,7 +41238,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>557</v>
+        <v>543</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -41427,7 +41254,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>558</v>
+        <v>544</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -41443,7 +41270,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>559</v>
+        <v>545</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -41458,9 +41285,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>79</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -41468,7 +41293,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -41479,7 +41304,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -41488,7 +41313,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -41500,7 +41325,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -41508,7 +41333,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>560</v>
+        <v>546</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -41604,7 +41429,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>561</v>
+        <v>547</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -41647,7 +41472,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -41974,7 +41799,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -41990,7 +41815,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -42006,7 +41831,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -42022,7 +41847,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -42038,7 +41863,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -42053,9 +41878,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>79</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -42063,7 +41886,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -42074,7 +41897,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -42083,7 +41906,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -42095,7 +41918,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -42103,7 +41926,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -42199,7 +42022,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -42242,7 +42065,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -42569,7 +42392,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>562</v>
+        <v>548</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -42585,7 +42408,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>563</v>
+        <v>549</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -42601,7 +42424,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>564</v>
+        <v>550</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -42617,7 +42440,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>565</v>
+        <v>551</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -42633,7 +42456,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>566</v>
+        <v>552</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -42648,9 +42471,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>567</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -42658,7 +42479,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -42669,7 +42490,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -42678,7 +42499,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -42690,7 +42511,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -42698,7 +42519,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>568</v>
+        <v>553</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -42794,7 +42615,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>569</v>
+        <v>554</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -42837,7 +42658,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>570</v>
+        <v>555</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -43164,7 +42985,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>571</v>
+        <v>556</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -43180,7 +43001,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>572</v>
+        <v>557</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -43196,7 +43017,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>573</v>
+        <v>558</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -43212,7 +43033,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>574</v>
+        <v>559</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -43228,7 +43049,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>575</v>
+        <v>560</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -43243,9 +43064,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -43253,7 +43072,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -43264,7 +43083,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -43273,7 +43092,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -43285,7 +43104,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -43293,7 +43112,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>576</v>
+        <v>561</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -43389,7 +43208,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>577</v>
+        <v>562</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -43432,7 +43251,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -43759,7 +43578,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>578</v>
+        <v>563</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -43775,7 +43594,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>579</v>
+        <v>564</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -43791,7 +43610,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>580</v>
+        <v>565</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -43807,7 +43626,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>581</v>
+        <v>566</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -43823,7 +43642,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>582</v>
+        <v>567</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -43838,9 +43657,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -43848,7 +43665,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -43859,7 +43676,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -43868,7 +43685,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -43880,7 +43697,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -43888,7 +43705,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>583</v>
+        <v>568</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -43984,7 +43801,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>584</v>
+        <v>569</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -44027,7 +43844,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -44354,7 +44171,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>585</v>
+        <v>570</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -44370,7 +44187,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>586</v>
+        <v>571</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -44386,7 +44203,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>587</v>
+        <v>572</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -44402,7 +44219,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>588</v>
+        <v>573</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -44418,7 +44235,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>589</v>
+        <v>574</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -44433,9 +44250,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>79</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -44443,7 +44258,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -44454,7 +44269,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -44463,7 +44278,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -44475,7 +44290,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -44483,7 +44298,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>590</v>
+        <v>575</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -44579,7 +44394,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>591</v>
+        <v>576</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -44622,7 +44437,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -44949,7 +44764,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>592</v>
+        <v>577</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -44965,7 +44780,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>593</v>
+        <v>578</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -44981,7 +44796,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>594</v>
+        <v>579</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -44997,7 +44812,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>595</v>
+        <v>580</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -45013,7 +44828,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>596</v>
+        <v>581</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -45028,9 +44843,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>356</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -45038,7 +44851,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -45049,7 +44862,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -45058,7 +44871,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -45070,7 +44883,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -45078,7 +44891,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>597</v>
+        <v>582</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -45174,7 +44987,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>598</v>
+        <v>583</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -45217,7 +45030,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -45544,7 +45357,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>599</v>
+        <v>584</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -45560,7 +45373,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>600</v>
+        <v>585</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -45576,7 +45389,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>601</v>
+        <v>586</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -45592,7 +45405,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>602</v>
+        <v>587</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -45608,7 +45421,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>603</v>
+        <v>588</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -45623,9 +45436,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>356</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -45633,7 +45444,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -45644,7 +45455,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -45653,7 +45464,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -45665,7 +45476,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -45673,7 +45484,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>604</v>
+        <v>589</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -45769,7 +45580,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>605</v>
+        <v>590</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -45812,7 +45623,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -46139,7 +45950,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>606</v>
+        <v>591</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -46155,7 +45966,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>607</v>
+        <v>592</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -46171,7 +45982,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>608</v>
+        <v>593</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -46187,7 +45998,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>609</v>
+        <v>594</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -46203,7 +46014,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>610</v>
+        <v>595</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -46218,9 +46029,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -46228,7 +46037,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -46239,7 +46048,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -46248,7 +46057,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -46260,7 +46069,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -46268,7 +46077,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>611</v>
+        <v>596</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -46364,7 +46173,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>612</v>
+        <v>597</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -46407,7 +46216,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -46734,7 +46543,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>613</v>
+        <v>598</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -46750,7 +46559,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>614</v>
+        <v>599</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -46766,7 +46575,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>615</v>
+        <v>600</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -46782,7 +46591,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>616</v>
+        <v>601</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -46798,7 +46607,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>617</v>
+        <v>602</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -46813,9 +46622,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -46823,7 +46630,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -46834,7 +46641,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -46843,7 +46650,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -46855,7 +46662,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -46863,7 +46670,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>618</v>
+        <v>603</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -46959,7 +46766,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>619</v>
+        <v>604</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -47002,7 +46809,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -47329,7 +47136,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>620</v>
+        <v>605</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -47345,7 +47152,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>621</v>
+        <v>606</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -47361,7 +47168,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>622</v>
+        <v>607</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -47377,7 +47184,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>623</v>
+        <v>608</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -47393,7 +47200,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>624</v>
+        <v>609</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -47408,9 +47215,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>79</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -47418,7 +47223,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -47429,7 +47234,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -47438,7 +47243,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -47450,7 +47255,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -47458,7 +47263,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>625</v>
+        <v>610</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -47554,7 +47359,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>626</v>
+        <v>611</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -47597,7 +47402,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -47924,7 +47729,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>627</v>
+        <v>612</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -47940,7 +47745,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>628</v>
+        <v>613</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -47956,7 +47761,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>629</v>
+        <v>614</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -47972,7 +47777,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>630</v>
+        <v>615</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -47988,7 +47793,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>631</v>
+        <v>616</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -48003,9 +47808,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>79</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -48013,7 +47816,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -48024,7 +47827,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -48033,7 +47836,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -48045,7 +47848,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -48053,7 +47856,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>632</v>
+        <v>617</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -48149,7 +47952,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>633</v>
+        <v>618</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -48192,7 +47995,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -48519,7 +48322,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -48535,7 +48338,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -48551,7 +48354,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -48567,7 +48370,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -48583,7 +48386,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -48598,9 +48401,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>106</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -48608,7 +48409,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -48619,7 +48420,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -48628,7 +48429,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -48640,7 +48441,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -48648,7 +48449,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -48744,7 +48545,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -48787,7 +48588,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -49114,7 +48915,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>634</v>
+        <v>619</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -49130,7 +48931,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>635</v>
+        <v>620</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -49146,7 +48947,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>636</v>
+        <v>621</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -49162,7 +48963,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>637</v>
+        <v>622</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -49178,7 +48979,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>638</v>
+        <v>623</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -49193,9 +48994,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>79</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -49203,7 +49002,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -49214,7 +49013,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -49223,7 +49022,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -49235,7 +49034,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -49243,7 +49042,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>639</v>
+        <v>624</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -49339,7 +49138,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>640</v>
+        <v>625</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -49382,7 +49181,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -49709,7 +49508,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>641</v>
+        <v>626</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -49725,7 +49524,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>642</v>
+        <v>627</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -49741,7 +49540,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>643</v>
+        <v>628</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -49757,7 +49556,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>644</v>
+        <v>629</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -49773,7 +49572,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>645</v>
+        <v>630</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -49788,9 +49587,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>123</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -49798,7 +49595,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -49809,7 +49606,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -49818,7 +49615,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -49830,7 +49627,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -49838,7 +49635,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>646</v>
+        <v>631</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -49934,7 +49731,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>647</v>
+        <v>632</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -49977,7 +49774,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -50360,7 +50157,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -50376,7 +50173,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -50392,7 +50189,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -50408,7 +50205,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -50424,7 +50221,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -50439,9 +50236,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -50449,7 +50244,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -50460,7 +50255,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -50469,7 +50264,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -50481,7 +50276,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -50489,7 +50284,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -50585,7 +50380,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -50628,7 +50423,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
